--- a/Excel/URoleConfig.xlsx
+++ b/Excel/URoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83734158-62E8-421F-9D0C-BCE75253F78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0CD66-5FDE-47E9-ACD2-02105A4A5081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -598,7 +598,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -814,7 +814,7 @@
         <v>1</v>
       </c>
       <c r="M6" s="6">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="N6" s="6">
         <v>10</v>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="M7" s="6">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="N7" s="6">
         <v>10</v>

--- a/Excel/URoleConfig.xlsx
+++ b/Excel/URoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F0CD66-5FDE-47E9-ACD2-02105A4A5081}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4585780B-5380-42C9-BDF4-57A8DDED04B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Skeleton</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>智能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -198,6 +194,10 @@
   </si>
   <si>
     <t>{'skills':[2001,2002,2003]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role_Skeleton</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +598,7 @@
   <dimension ref="A1:S7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,9 @@
     <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
-    <col min="7" max="9" width="7.875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.5" style="2" customWidth="1"/>
     <col min="12" max="16" width="6.875" style="2" customWidth="1"/>
     <col min="17" max="17" width="6.75" style="2" customWidth="1"/>
@@ -619,7 +621,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -647,37 +649,37 @@
         <v>16</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="Q3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -698,37 +700,37 @@
         <v>17</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -752,31 +754,31 @@
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>6</v>
@@ -798,8 +800,8 @@
       <c r="G6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>18</v>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>15</v>
@@ -808,7 +810,7 @@
         <v>5.5</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="6">
         <v>1</v>
@@ -840,10 +842,10 @@
         <v>1002</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>11</v>
@@ -851,8 +853,8 @@
       <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>18</v>
+      <c r="H7" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>15</v>
@@ -861,7 +863,7 @@
         <v>5.5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>

--- a/Excel/URoleConfig.xlsx
+++ b/Excel/URoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4585780B-5380-42C9-BDF4-57A8DDED04B7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BE49F-349D-43CA-B128-69C62ACCA9A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -125,14 +125,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怒气恢复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AngerRegain</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>防御</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -153,14 +145,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>怒气</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Anger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>美女战士</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -178,14 +162,6 @@
   </si>
   <si>
     <t>攻击力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量恢复</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HPRegain</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -275,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,7 +265,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -595,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -612,24 +587,22 @@
     <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
     <col min="10" max="11" width="9.5" style="2" customWidth="1"/>
-    <col min="12" max="16" width="6.875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="6.75" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="6.75" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="2"/>
+    <col min="12" max="15" width="6.875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.75" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>44</v>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -661,28 +634,19 @@
         <v>26</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -712,28 +676,19 @@
         <v>27</v>
       </c>
       <c r="M4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -771,20 +726,11 @@
       <c r="O5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="6" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -801,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>15</v>
@@ -810,7 +756,7 @@
         <v>5.5</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L6" s="6">
         <v>1</v>
@@ -822,30 +768,21 @@
         <v>10</v>
       </c>
       <c r="O6" s="6">
+        <v>50</v>
+      </c>
+      <c r="P6" s="1">
         <v>100</v>
       </c>
-      <c r="P6" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>9999</v>
-      </c>
-      <c r="R6" s="6">
-        <v>100</v>
-      </c>
-      <c r="S6" s="1">
-        <v>9999</v>
-      </c>
     </row>
-    <row r="7" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>11</v>
@@ -854,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>15</v>
@@ -863,7 +800,7 @@
         <v>5.5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>
@@ -875,19 +812,10 @@
         <v>10</v>
       </c>
       <c r="O7" s="6">
+        <v>50</v>
+      </c>
+      <c r="P7" s="1">
         <v>100</v>
-      </c>
-      <c r="P7" s="7">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>9999</v>
-      </c>
-      <c r="R7" s="6">
-        <v>100</v>
-      </c>
-      <c r="S7" s="1">
-        <v>9999</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/URoleConfig.xlsx
+++ b/Excel/URoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786BE49F-349D-43CA-B128-69C62ACCA9A8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE92C2D-8029-40E9-904F-7D14DF2E5A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -169,11 +169,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>{'skills':[2001,2002,2003]}</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Role_Skeleton</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'skills':[2001,2002]}</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -730,7 +730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -747,7 +747,7 @@
         <v>15</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>15</v>
@@ -756,7 +756,7 @@
         <v>5.5</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L6" s="6">
         <v>1</v>
@@ -774,7 +774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -791,7 +791,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>15</v>
@@ -800,7 +800,7 @@
         <v>5.5</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="6">
         <v>1</v>

--- a/Excel/URoleConfig.xlsx
+++ b/Excel/URoleConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ETFork\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE92C2D-8029-40E9-904F-7D14DF2E5A52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99522E5D-64E4-428D-A0CC-4765FB3BB311}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="15975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>{'skills':[2001,2002]}</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>land</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -193,6 +205,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -200,6 +213,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -251,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -266,6 +280,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -570,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -584,25 +601,25 @@
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.5" style="2" customWidth="1"/>
     <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.75" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.875" style="2" customWidth="1"/>
-    <col min="10" max="11" width="9.5" style="2" customWidth="1"/>
-    <col min="12" max="15" width="6.875" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.75" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="8" max="9" width="10.75" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="2" customWidth="1"/>
+    <col min="11" max="12" width="9.5" style="2" customWidth="1"/>
+    <col min="13" max="16" width="6.875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="6.75" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -621,32 +638,35 @@
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="M3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -663,32 +683,35 @@
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="M4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="N4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="O4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="P4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="Q4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
@@ -705,32 +728,35 @@
       <c r="H5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>22</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="P5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -749,32 +775,35 @@
       <c r="H6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>5.5</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="6">
+      <c r="M6" s="6">
         <v>1</v>
       </c>
-      <c r="M6" s="6">
+      <c r="N6" s="6">
         <v>6</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="6">
         <v>10</v>
       </c>
-      <c r="O6" s="6">
+      <c r="P6" s="6">
         <v>50</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -793,28 +822,31 @@
       <c r="H7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>5.5</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="6">
+      <c r="M7" s="6">
         <v>1</v>
       </c>
-      <c r="M7" s="6">
+      <c r="N7" s="6">
         <v>6</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="6">
         <v>10</v>
       </c>
-      <c r="O7" s="6">
+      <c r="P7" s="6">
         <v>50</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>100</v>
       </c>
     </row>
